--- a/signal.xlsx
+++ b/signal.xlsx
@@ -139,9 +139,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -467,7 +470,7 @@
   <dimension ref="A1:H12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -502,7 +505,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="3" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="3" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
         <v>23</v>
@@ -533,10 +536,10 @@
       <c r="C5" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D5" s="2" t="s">
+      <c r="D5" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="E5" s="2"/>
+      <c r="E5" s="3"/>
       <c r="F5" s="1" t="s">
         <v>15</v>
       </c>
@@ -547,7 +550,15 @@
         <v>13</v>
       </c>
     </row>
-    <row r="6" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="6" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="C6" s="2">
+        <v>4</v>
+      </c>
+      <c r="D6" s="4">
+        <v>3</v>
+      </c>
+      <c r="E6" s="4"/>
+    </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
         <v>15</v>
@@ -587,14 +598,33 @@
       <c r="D8" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="E8" s="2" t="s">
+      <c r="E8" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="F8" s="2"/>
-      <c r="G8" s="2"/>
-      <c r="H8" s="2"/>
-    </row>
-    <row r="9" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
+      <c r="F8" s="3"/>
+      <c r="G8" s="3"/>
+      <c r="H8" s="3"/>
+    </row>
+    <row r="9" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="2">
+        <v>3</v>
+      </c>
+      <c r="B9" s="2">
+        <v>3</v>
+      </c>
+      <c r="C9" s="2">
+        <v>5</v>
+      </c>
+      <c r="D9" s="2">
+        <v>3</v>
+      </c>
+      <c r="E9" s="4">
+        <v>3</v>
+      </c>
+      <c r="F9" s="4"/>
+      <c r="G9" s="4"/>
+      <c r="H9" s="4"/>
+    </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10" s="1">
         <v>7</v>
@@ -647,11 +677,38 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="12" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="2">
+        <v>5</v>
+      </c>
+      <c r="B12" s="2">
+        <v>3</v>
+      </c>
+      <c r="C12" s="2">
+        <v>4</v>
+      </c>
+      <c r="D12" s="2">
+        <v>4</v>
+      </c>
+      <c r="E12" s="2">
+        <v>5</v>
+      </c>
+      <c r="F12" s="2">
+        <v>3</v>
+      </c>
+      <c r="G12" s="2">
+        <v>3</v>
+      </c>
+      <c r="H12" s="2">
+        <v>5</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="2">
+  <mergeCells count="4">
     <mergeCell ref="E8:H8"/>
     <mergeCell ref="D5:E5"/>
+    <mergeCell ref="E9:H9"/>
+    <mergeCell ref="D6:E6"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/signal.xlsx
+++ b/signal.xlsx
@@ -470,7 +470,7 @@
   <dimension ref="A1:H12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -607,7 +607,7 @@
     </row>
     <row r="9" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A9" s="2">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B9" s="2">
         <v>3</v>
